--- a/Datos limpios/Pricing semanal/2025/Maiz.xlsx
+++ b/Datos limpios/Pricing semanal/2025/Maiz.xlsx
@@ -355,1540 +355,1972 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ANIO_OPERACION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>SEMANA_OPERACION</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SEMANA_INICIO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO_RECTIFICACION</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO_ANULACION</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO_PRECIO_HECHO</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FIJACION</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FIJACION_RECTIFICACION</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>FIJACION_ANULACION</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FIJACIONES</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>45658</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>209210.21</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>18178.25</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1150</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>226238.46</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>91157.10000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>411.97</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>91569.07000000001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>317807.53</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>45663</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>959317.67</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>14749.66</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11670.67</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>962396.66</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>232506.86</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>643.61</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>648.84</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>232501.63</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1194898.29</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>45670</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>816987.67</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20200.98</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10193.97</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>826994.6800000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>186813.7</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>93.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>800</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>186106.9</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1013101.58</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>45677</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>549371.36</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20207.21</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>11238.94</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>558339.63</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>144155.43</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>684.63</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>143470.8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>701810.4299999999</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>45684</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>482015.11</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10850.76</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>32380.44</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>460485.43</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>133125.06</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2048.57</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3780.55</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>131393.08</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>591878.51</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>45691</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>625476.02</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>20883.3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21730.49</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>624628.8300000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>162876.28</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>162876.28</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>787505.1100000001</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>45698</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>532346.5699999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>28045.54</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5523.79</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>554868.3199999999</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>89725.25</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>835.76</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>332.13</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>90228.87999999999</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>645097.2</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>45705</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>647945.97</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>15890.28</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>15405.12</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>648431.13</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>107809.5</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>140.54</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>107668.96</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>756100.09</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>45712</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>470338.44</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>16563.04</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>15828.77</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>471072.71</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>103796.6</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>25.83</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>103822.43</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>574895.14</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>45719</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>223191.78</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5835.95</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4099.41</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>224928.32</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>91331.99000000001</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>91331.99000000001</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>316260.31</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>45726</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>462760.77</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>20413.82</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4120.41</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>479054.1800000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>102291.93</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>33.89</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2300</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>100025.82</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>579080</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>2025</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>45733</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>772216.1899999999</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>14382.51</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>11873.3</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>774725.3999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>95998.53999999999</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>147.87</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>95850.67</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>870576.0699999999</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>2025</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>45740</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>497065.48</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>8105.02</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13716.98</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>491453.52</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>120268.11</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5252.38</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>181.3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>125339.19</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>616792.71</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>2025</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>45747</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>689792.5600000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>20662.84</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>9823.450000000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>700631.9500000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>137028.04</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2150</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>139178.04</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>839809.9900000001</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>2025</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>45754</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1010178.67</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>22875.49</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7998.75</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1025055.41</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>143590.29</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>4.91</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>143585.38</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1168640.79</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>45761</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>308636.42</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>7850.73</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16106.79</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>300380.36</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>53206.68</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>53206.68</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>353587.04</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>2025</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>45768</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>652004.5600000001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>23702.06</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4544.39</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>671162.2300000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>314989</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>352</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>290</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>315051</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>986213.2300000001</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>2025</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>45775</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>612801.73</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3360.2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>9817.4</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>606344.5299999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>217656.24</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>217656.24</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>824000.7699999999</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>2025</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>45782</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>585879.5</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>13239.46</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12513.17</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>586605.7899999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>184498.37</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>200</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>380</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>184318.37</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>770924.1599999999</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>2025</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>45789</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>567138.1800000001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8120.04</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>11106.49</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>564151.7300000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>118908.55</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1130</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1742.91</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>118295.64</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>682447.3700000001</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>2025</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>45796</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>517906.21</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>12528.21</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>22023.93</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>508410.49</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>281257.99</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>877.8199999999999</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>180</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>281955.81</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>790366.3</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>2025</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>45803</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>487727.04</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>10972.61</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>17799.3</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>480900.35</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>234960.78</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>573.73</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>235534.51</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>716434.86</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>2025</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>45810</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>438599</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>12696.76</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>6329.46</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>444966.3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>126150.43</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1088.86</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>127239.29</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>572205.59</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>2025</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>45817</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>566016.5600000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>8356.4</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>10003.54</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>564369.42</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>105376.13</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>105376.13</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>669745.55</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>2025</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>45824</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>304855.2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1750.17</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>30670.57</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>275934.8</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>75683.83</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>118.48</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>567.65</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>75234.66</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>351169.46</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>2025</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>45831</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>748352.4300000001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>12213.28</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>25161.33</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>735404.3800000001</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>175001.77</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>129.18</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>390</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>174740.95</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>910145.3300000001</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>2025</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>45838</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>687084.53</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>15616.47</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>30765.74</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>671935.26</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>130735.17</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>465.51</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>131200.68</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>803135.9399999999</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>2025</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>45845</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>335282.62</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>11635.52</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1818.29</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>345099.85</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>59130.83</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>564.8099999999999</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>59695.64</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>404795.49</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>2025</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>45852</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>432649.48</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>15196.3</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4840.27</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>443005.51</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>178089.57</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>178089.57</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>621095.08</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>2025</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>45859</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>316148.52</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4754.57</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7013.15</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>313889.94</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>222463.8</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2375</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>9364.75</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>215474.05</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>529363.99</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>2025</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>45866</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>260511.27</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>8974.639999999999</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5528.18</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>263957.73</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>301312.32</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>12057.76</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>313370.08</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>577327.8100000001</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>2025</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>45873</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>386283.16</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>19033.92</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>6172.41</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>399144.67</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>229793.99</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>779.11</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4037</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>226536.1</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>625680.77</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>2025</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>45880</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>356214.86</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>28350.88</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1220.5</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>383345.24</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>103263.83</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>106.68</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>200</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>103170.51</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>486515.75</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>2025</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>45887</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>519753.64</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>15046</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>21641.44</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>513158.2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>201273.69</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>100</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>75.45</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>201298.24</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>714456.4399999999</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>2025</v>
+      </c>
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>45894</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>331542.03</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>13585.32</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>35614.14</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>309513.21</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>248270.23</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>2075</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>246195.23</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>555708.4400000001</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>2025</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>45901</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>424680.59</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>17019.96</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>3647.82</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>438052.73</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>138678.62</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>221.66</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>138900.28</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>576953.01</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>2025</v>
+      </c>
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>45908</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>441769.03</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>12368.53</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>6866.05</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>447271.5100000001</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>160307.6</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>252.13</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>160559.73</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>607831.2400000001</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>2025</v>
+      </c>
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>45915</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>506811.58</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>14444.05</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>5116.89</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>516138.74</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>140356.43</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>100</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>220</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>140236.43</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>656375.1699999999</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>45922</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>458943.4</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>15119.25</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>7454.65</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>466608</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>172803.14</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>373.21</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>173176.35</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>639784.35</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>2025</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>45929</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>214863.87</v>
       </c>
-      <c r="D41">
-        <v>8259.57</v>
-      </c>
       <c r="E41">
+        <v>8229.530000000001</v>
+      </c>
+      <c r="F41">
         <v>2710.82</v>
       </c>
-      <c r="F41">
-        <v>220412.62</v>
-      </c>
       <c r="G41">
+        <v>220382.58</v>
+      </c>
+      <c r="H41">
         <v>175452.99</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>628.73</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>174824.26</v>
       </c>
-      <c r="K41">
-        <v>395236.88</v>
+      <c r="L41">
+        <v>395206.84</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>45936</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>236824.13</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>7302.32</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>4627.54</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>239498.91</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>64363.25</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>250</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>100</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>64513.25</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>304012.16</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>2025</v>
+      </c>
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>45943</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>327739.35</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>5169.17</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>4219.62</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>328688.9</v>
       </c>
-      <c r="G43">
-        <v>65748.92999999999</v>
-      </c>
       <c r="H43">
+        <v>65734.02</v>
+      </c>
+      <c r="I43">
         <v>4.25</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
-        <v>65753.17999999999</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>394442.08</v>
+        <v>65738.27</v>
+      </c>
+      <c r="L43">
+        <v>394427.17</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>2025</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D44">
+        <v>294257.67</v>
+      </c>
+      <c r="E44">
+        <v>2549.09</v>
+      </c>
+      <c r="F44">
+        <v>11277.55</v>
+      </c>
+      <c r="G44">
+        <v>285529.21</v>
+      </c>
+      <c r="H44">
+        <v>120162.31</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>295</v>
+      </c>
+      <c r="K44">
+        <v>119867.31</v>
+      </c>
+      <c r="L44">
+        <v>405396.52</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>2025</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D45">
+        <v>1510</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1510</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1510</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>MAIZ</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1897,8 +2329,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D6CA5EAACE9DA04D9E421A617A76D009" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bac5de4a034fee97af64ba5a2822cd53">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77131357-5c03-45fa-a80b-b9111bb46cb1" xmlns:ns3="d3f11db4-a96c-41b4-b8ec-902c72f52048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="027d3429df443898fbbc0b888682b5bf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D6CA5EAACE9DA04D9E421A617A76D009" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="854b0670eee28d8fa271d4f22cb9c97d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77131357-5c03-45fa-a80b-b9111bb46cb1" xmlns:ns3="d3f11db4-a96c-41b4-b8ec-902c72f52048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b486ba09ce8a2fb19cc660d7edf32df4" ns2:_="" ns3:_="">
     <xsd:import namespace="77131357-5c03-45fa-a80b-b9111bb46cb1"/>
     <xsd:import namespace="d3f11db4-a96c-41b4-b8ec-902c72f52048"/>
     <xsd:element name="properties">
@@ -2179,13 +2611,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C12CF29-1016-4A70-82EE-E896AAB018A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA7683CD-EE31-4F9F-9D90-358EBB43AEA9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2812231-5EC7-45B1-BBC2-6021F7B3F7F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD9084FB-4E1C-4CE2-89D0-AABC890A558D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1D418FF-E177-419B-B5C1-BF3137C78B2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FD70E7-097E-4071-8E27-0A5F7876EB9F}"/>
 </file>